--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/070_データモデル設計/テーブル定義書_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/070_データモデル設計/テーブル定義書_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB51CFD-F6EB-4CEC-B314-421979C643F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6828D386-CDB9-48DA-A27E-59051E88168A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,9 +850,6 @@
     <t>ユーザ</t>
   </si>
   <si>
-    <t>ユーザ氏名（ふりがな）</t>
-  </si>
-  <si>
     <t>U</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1429,13 +1426,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カンジ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ユーザ氏名（ふりがな）</t>
-    <rPh sb="3" eb="5">
-      <t>シメイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1804,6 +1794,17 @@
     <rPh sb="9" eb="10">
       <t>チ</t>
     </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザ氏名（ふりがな）</t>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザ氏名（ふりがな）</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -3576,7 +3577,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4398,7 +4399,7 @@
       <c r="D5" s="195"/>
       <c r="E5" s="196"/>
       <c r="F5" s="108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
@@ -4419,7 +4420,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -4441,7 +4442,7 @@
       <c r="D6" s="195"/>
       <c r="E6" s="196"/>
       <c r="F6" s="108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="103"/>
       <c r="H6" s="103"/>
@@ -4522,7 +4523,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -4708,21 +4709,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M11" s="89"/>
       <c r="N11" s="89"/>
@@ -4741,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -4775,7 +4776,7 @@
       <c r="BA11" s="209"/>
       <c r="BB11" s="210"/>
       <c r="BC11" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD11" s="211"/>
       <c r="BE11" s="211"/>
@@ -4789,28 +4790,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
       <c r="F12" s="86"/>
       <c r="G12" s="83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
       <c r="L12" s="88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
       <c r="O12" s="89"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R12" s="81"/>
       <c r="S12" s="82"/>
@@ -4852,7 +4853,7 @@
       <c r="BA12" s="209"/>
       <c r="BB12" s="210"/>
       <c r="BC12" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD12" s="211"/>
       <c r="BE12" s="211"/>
@@ -6157,7 +6158,7 @@
       <c r="D5" s="195"/>
       <c r="E5" s="196"/>
       <c r="F5" s="108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
@@ -6178,7 +6179,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -6200,7 +6201,7 @@
       <c r="D6" s="195"/>
       <c r="E6" s="196"/>
       <c r="F6" s="108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="103"/>
       <c r="H6" s="103"/>
@@ -6281,7 +6282,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -6467,21 +6468,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M11" s="89"/>
       <c r="N11" s="89"/>
@@ -6500,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -6546,28 +6547,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
       <c r="F12" s="86"/>
       <c r="G12" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
       <c r="L12" s="88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
       <c r="O12" s="89"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R12" s="81"/>
       <c r="S12" s="82"/>
@@ -6579,7 +6580,7 @@
         <v>2</v>
       </c>
       <c r="W12" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X12" s="72"/>
       <c r="Y12" s="72"/>
@@ -6625,28 +6626,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="86"/>
       <c r="G13" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="82"/>
       <c r="L13" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M13" s="89"/>
       <c r="N13" s="89"/>
       <c r="O13" s="89"/>
       <c r="P13" s="90"/>
       <c r="Q13" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R13" s="81"/>
       <c r="S13" s="82"/>
@@ -6656,7 +6657,7 @@
       <c r="U13" s="215"/>
       <c r="V13" s="70"/>
       <c r="W13" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X13" s="73"/>
       <c r="Y13" s="73"/>
@@ -6702,28 +6703,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
       <c r="F14" s="82"/>
       <c r="G14" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
       <c r="K14" s="82"/>
       <c r="L14" s="88" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M14" s="89"/>
       <c r="N14" s="89"/>
       <c r="O14" s="89"/>
       <c r="P14" s="90"/>
       <c r="Q14" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R14" s="81"/>
       <c r="S14" s="82"/>
@@ -6733,7 +6734,7 @@
       <c r="U14" s="198"/>
       <c r="V14" s="70"/>
       <c r="W14" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X14" s="73"/>
       <c r="Y14" s="73"/>
@@ -6779,28 +6780,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="82"/>
       <c r="G15" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="81"/>
       <c r="I15" s="81"/>
       <c r="J15" s="81"/>
       <c r="K15" s="82"/>
       <c r="L15" s="88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M15" s="89"/>
       <c r="N15" s="89"/>
       <c r="O15" s="89"/>
       <c r="P15" s="90"/>
       <c r="Q15" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R15" s="81"/>
       <c r="S15" s="82"/>
@@ -6810,7 +6811,7 @@
       <c r="U15" s="198"/>
       <c r="V15" s="70"/>
       <c r="W15" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X15" s="73"/>
       <c r="Y15" s="73"/>
@@ -6856,28 +6857,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="F16" s="82"/>
       <c r="G16" s="80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" s="81"/>
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
       <c r="K16" s="82"/>
       <c r="L16" s="88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M16" s="89"/>
       <c r="N16" s="89"/>
       <c r="O16" s="89"/>
       <c r="P16" s="90"/>
       <c r="Q16" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R16" s="81"/>
       <c r="S16" s="82"/>
@@ -6931,28 +6932,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="82"/>
       <c r="G17" s="80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
       <c r="J17" s="81"/>
       <c r="K17" s="82"/>
       <c r="L17" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M17" s="89"/>
       <c r="N17" s="89"/>
       <c r="O17" s="89"/>
       <c r="P17" s="90"/>
       <c r="Q17" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R17" s="81"/>
       <c r="S17" s="82"/>
@@ -6994,7 +6995,7 @@
       <c r="BA17" s="209"/>
       <c r="BB17" s="210"/>
       <c r="BC17" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD17" s="211"/>
       <c r="BE17" s="211"/>
@@ -7008,28 +7009,28 @@
         <v>8</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="82"/>
       <c r="G18" s="80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
       <c r="K18" s="82"/>
       <c r="L18" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M18" s="89"/>
       <c r="N18" s="89"/>
       <c r="O18" s="89"/>
       <c r="P18" s="90"/>
       <c r="Q18" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R18" s="81"/>
       <c r="S18" s="82"/>
@@ -7071,7 +7072,7 @@
       <c r="BA18" s="209"/>
       <c r="BB18" s="210"/>
       <c r="BC18" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD18" s="211"/>
       <c r="BE18" s="211"/>
@@ -7085,28 +7086,28 @@
         <v>9</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="82"/>
       <c r="G19" s="80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H19" s="81"/>
       <c r="I19" s="81"/>
       <c r="J19" s="81"/>
       <c r="K19" s="82"/>
       <c r="L19" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M19" s="89"/>
       <c r="N19" s="89"/>
       <c r="O19" s="89"/>
       <c r="P19" s="90"/>
       <c r="Q19" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R19" s="81"/>
       <c r="S19" s="82"/>
@@ -7148,7 +7149,7 @@
       <c r="BA19" s="209"/>
       <c r="BB19" s="210"/>
       <c r="BC19" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD19" s="211"/>
       <c r="BE19" s="211"/>
@@ -7162,28 +7163,28 @@
         <v>10</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
       <c r="F20" s="82"/>
       <c r="G20" s="80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" s="81"/>
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
       <c r="K20" s="82"/>
       <c r="L20" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M20" s="89"/>
       <c r="N20" s="89"/>
       <c r="O20" s="89"/>
       <c r="P20" s="90"/>
       <c r="Q20" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R20" s="81"/>
       <c r="S20" s="82"/>
@@ -7225,7 +7226,7 @@
       <c r="BA20" s="209"/>
       <c r="BB20" s="210"/>
       <c r="BC20" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD20" s="211"/>
       <c r="BE20" s="211"/>
@@ -7239,28 +7240,28 @@
         <v>11</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="F21" s="82"/>
       <c r="G21" s="80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
       <c r="K21" s="82"/>
       <c r="L21" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M21" s="89"/>
       <c r="N21" s="89"/>
       <c r="O21" s="89"/>
       <c r="P21" s="90"/>
       <c r="Q21" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R21" s="81"/>
       <c r="S21" s="82"/>
@@ -7302,7 +7303,7 @@
       <c r="BA21" s="209"/>
       <c r="BB21" s="210"/>
       <c r="BC21" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD21" s="211"/>
       <c r="BE21" s="211"/>
@@ -7316,28 +7317,28 @@
         <v>12</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
       <c r="J22" s="81"/>
       <c r="K22" s="82"/>
       <c r="L22" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M22" s="89"/>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
       <c r="Q22" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R22" s="81"/>
       <c r="S22" s="82"/>
@@ -7379,7 +7380,7 @@
       <c r="BA22" s="209"/>
       <c r="BB22" s="210"/>
       <c r="BC22" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD22" s="211"/>
       <c r="BE22" s="211"/>
@@ -7393,28 +7394,28 @@
         <v>13</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
       <c r="F23" s="82"/>
       <c r="G23" s="80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
       <c r="K23" s="82"/>
       <c r="L23" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M23" s="89"/>
       <c r="N23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="90"/>
       <c r="Q23" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R23" s="81"/>
       <c r="S23" s="82"/>
@@ -7456,7 +7457,7 @@
       <c r="BA23" s="209"/>
       <c r="BB23" s="210"/>
       <c r="BC23" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD23" s="211"/>
       <c r="BE23" s="211"/>
@@ -7470,28 +7471,28 @@
         <v>14</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="82"/>
       <c r="G24" s="80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H24" s="81"/>
       <c r="I24" s="81"/>
       <c r="J24" s="81"/>
       <c r="K24" s="82"/>
       <c r="L24" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M24" s="89"/>
       <c r="N24" s="89"/>
       <c r="O24" s="89"/>
       <c r="P24" s="90"/>
       <c r="Q24" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R24" s="81"/>
       <c r="S24" s="82"/>
@@ -7533,7 +7534,7 @@
       <c r="BA24" s="209"/>
       <c r="BB24" s="210"/>
       <c r="BC24" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD24" s="211"/>
       <c r="BE24" s="211"/>
@@ -7547,28 +7548,28 @@
         <v>15</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
       <c r="F25" s="82"/>
       <c r="G25" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H25" s="81"/>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
       <c r="K25" s="82"/>
       <c r="L25" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M25" s="89"/>
       <c r="N25" s="89"/>
       <c r="O25" s="89"/>
       <c r="P25" s="90"/>
       <c r="Q25" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R25" s="81"/>
       <c r="S25" s="82"/>
@@ -7610,7 +7611,7 @@
       <c r="BA25" s="209"/>
       <c r="BB25" s="210"/>
       <c r="BC25" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD25" s="211"/>
       <c r="BE25" s="211"/>
@@ -7624,28 +7625,28 @@
         <v>16</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
       <c r="F26" s="82"/>
       <c r="G26" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" s="81"/>
       <c r="I26" s="81"/>
       <c r="J26" s="81"/>
       <c r="K26" s="82"/>
       <c r="L26" s="88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M26" s="89"/>
       <c r="N26" s="89"/>
       <c r="O26" s="89"/>
       <c r="P26" s="90"/>
       <c r="Q26" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R26" s="81"/>
       <c r="S26" s="82"/>
@@ -7687,7 +7688,7 @@
       <c r="BA26" s="209"/>
       <c r="BB26" s="210"/>
       <c r="BC26" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD26" s="211"/>
       <c r="BE26" s="211"/>
@@ -8071,7 +8072,7 @@
       <c r="D5" s="195"/>
       <c r="E5" s="196"/>
       <c r="F5" s="108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
@@ -8092,7 +8093,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -8114,7 +8115,7 @@
       <c r="D6" s="195"/>
       <c r="E6" s="196"/>
       <c r="F6" s="108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="103"/>
       <c r="H6" s="103"/>
@@ -8195,7 +8196,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -8381,21 +8382,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M11" s="89"/>
       <c r="N11" s="89"/>
@@ -8414,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -8424,7 +8425,7 @@
       <c r="AC11" s="73"/>
       <c r="AD11" s="73"/>
       <c r="AE11" s="108" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF11" s="199"/>
       <c r="AG11" s="199"/>
@@ -8462,28 +8463,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
       <c r="F12" s="86"/>
       <c r="G12" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
       <c r="L12" s="88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
       <c r="O12" s="89"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R12" s="81"/>
       <c r="S12" s="82"/>
@@ -8495,7 +8496,7 @@
         <v>2</v>
       </c>
       <c r="W12" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X12" s="72"/>
       <c r="Y12" s="72"/>
@@ -8505,7 +8506,7 @@
       <c r="AC12" s="73"/>
       <c r="AD12" s="73"/>
       <c r="AE12" s="108" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AF12" s="199"/>
       <c r="AG12" s="199"/>
@@ -8543,28 +8544,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="86"/>
       <c r="G13" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="82"/>
       <c r="L13" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M13" s="89"/>
       <c r="N13" s="89"/>
       <c r="O13" s="89"/>
       <c r="P13" s="90"/>
       <c r="Q13" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R13" s="81"/>
       <c r="S13" s="82"/>
@@ -8574,7 +8575,7 @@
       <c r="U13" s="215"/>
       <c r="V13" s="70"/>
       <c r="W13" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X13" s="73"/>
       <c r="Y13" s="73"/>
@@ -8608,7 +8609,7 @@
       <c r="BA13" s="209"/>
       <c r="BB13" s="210"/>
       <c r="BC13" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD13" s="211"/>
       <c r="BE13" s="211"/>
@@ -8622,28 +8623,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
       <c r="F14" s="82"/>
       <c r="G14" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
       <c r="K14" s="82"/>
       <c r="L14" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M14" s="89"/>
       <c r="N14" s="89"/>
       <c r="O14" s="89"/>
       <c r="P14" s="90"/>
       <c r="Q14" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R14" s="81"/>
       <c r="S14" s="82"/>
@@ -8685,7 +8686,7 @@
       <c r="BA14" s="209"/>
       <c r="BB14" s="210"/>
       <c r="BC14" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD14" s="211"/>
       <c r="BE14" s="211"/>
@@ -8699,28 +8700,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
       <c r="F15" s="82"/>
       <c r="G15" s="80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H15" s="81"/>
       <c r="I15" s="81"/>
       <c r="J15" s="81"/>
       <c r="K15" s="82"/>
       <c r="L15" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M15" s="89"/>
       <c r="N15" s="89"/>
       <c r="O15" s="89"/>
       <c r="P15" s="90"/>
       <c r="Q15" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R15" s="81"/>
       <c r="S15" s="82"/>
@@ -8762,7 +8763,7 @@
       <c r="BA15" s="209"/>
       <c r="BB15" s="210"/>
       <c r="BC15" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD15" s="211"/>
       <c r="BE15" s="211"/>
@@ -8776,28 +8777,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="F16" s="82"/>
       <c r="G16" s="80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H16" s="81"/>
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
       <c r="K16" s="82"/>
       <c r="L16" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M16" s="89"/>
       <c r="N16" s="89"/>
       <c r="O16" s="89"/>
       <c r="P16" s="90"/>
       <c r="Q16" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R16" s="81"/>
       <c r="S16" s="82"/>
@@ -8839,7 +8840,7 @@
       <c r="BA16" s="209"/>
       <c r="BB16" s="210"/>
       <c r="BC16" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD16" s="211"/>
       <c r="BE16" s="211"/>
@@ -8853,28 +8854,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
       <c r="F17" s="82"/>
       <c r="G17" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
       <c r="J17" s="81"/>
       <c r="K17" s="82"/>
       <c r="L17" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M17" s="89"/>
       <c r="N17" s="89"/>
       <c r="O17" s="89"/>
       <c r="P17" s="90"/>
       <c r="Q17" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R17" s="81"/>
       <c r="S17" s="82"/>
@@ -8916,7 +8917,7 @@
       <c r="BA17" s="209"/>
       <c r="BB17" s="210"/>
       <c r="BC17" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD17" s="211"/>
       <c r="BE17" s="211"/>
@@ -8930,28 +8931,28 @@
         <v>8</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="82"/>
       <c r="G18" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
       <c r="K18" s="82"/>
       <c r="L18" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M18" s="89"/>
       <c r="N18" s="89"/>
       <c r="O18" s="89"/>
       <c r="P18" s="90"/>
       <c r="Q18" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R18" s="81"/>
       <c r="S18" s="82"/>
@@ -8993,7 +8994,7 @@
       <c r="BA18" s="209"/>
       <c r="BB18" s="210"/>
       <c r="BC18" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD18" s="211"/>
       <c r="BE18" s="211"/>
@@ -9007,28 +9008,28 @@
         <v>9</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="82"/>
       <c r="G19" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="81"/>
       <c r="I19" s="81"/>
       <c r="J19" s="81"/>
       <c r="K19" s="82"/>
       <c r="L19" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M19" s="89"/>
       <c r="N19" s="89"/>
       <c r="O19" s="89"/>
       <c r="P19" s="90"/>
       <c r="Q19" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R19" s="81"/>
       <c r="S19" s="82"/>
@@ -9070,7 +9071,7 @@
       <c r="BA19" s="209"/>
       <c r="BB19" s="210"/>
       <c r="BC19" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD19" s="211"/>
       <c r="BE19" s="211"/>
@@ -9084,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
       <c r="F20" s="82"/>
       <c r="G20" s="80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="81"/>
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
       <c r="K20" s="82"/>
       <c r="L20" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M20" s="89"/>
       <c r="N20" s="89"/>
       <c r="O20" s="89"/>
       <c r="P20" s="90"/>
       <c r="Q20" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R20" s="81"/>
       <c r="S20" s="82"/>
@@ -9147,7 +9148,7 @@
       <c r="BA20" s="209"/>
       <c r="BB20" s="210"/>
       <c r="BC20" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD20" s="211"/>
       <c r="BE20" s="211"/>
@@ -9161,28 +9162,28 @@
         <v>11</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="F21" s="82"/>
       <c r="G21" s="80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
       <c r="K21" s="82"/>
       <c r="L21" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M21" s="89"/>
       <c r="N21" s="89"/>
       <c r="O21" s="89"/>
       <c r="P21" s="90"/>
       <c r="Q21" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R21" s="81"/>
       <c r="S21" s="82"/>
@@ -9224,7 +9225,7 @@
       <c r="BA21" s="209"/>
       <c r="BB21" s="210"/>
       <c r="BC21" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD21" s="211"/>
       <c r="BE21" s="211"/>
@@ -9238,28 +9239,28 @@
         <v>12</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
       <c r="G22" s="80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
       <c r="J22" s="81"/>
       <c r="K22" s="82"/>
       <c r="L22" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M22" s="89"/>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
       <c r="Q22" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R22" s="81"/>
       <c r="S22" s="82"/>
@@ -9301,7 +9302,7 @@
       <c r="BA22" s="209"/>
       <c r="BB22" s="210"/>
       <c r="BC22" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD22" s="211"/>
       <c r="BE22" s="211"/>
@@ -9315,28 +9316,28 @@
         <v>13</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
       <c r="F23" s="82"/>
       <c r="G23" s="80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
       <c r="K23" s="82"/>
       <c r="L23" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M23" s="89"/>
       <c r="N23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="90"/>
       <c r="Q23" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R23" s="81"/>
       <c r="S23" s="82"/>
@@ -9378,7 +9379,7 @@
       <c r="BA23" s="209"/>
       <c r="BB23" s="210"/>
       <c r="BC23" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD23" s="211"/>
       <c r="BE23" s="211"/>
@@ -9392,28 +9393,28 @@
         <v>14</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="82"/>
       <c r="G24" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="81"/>
       <c r="I24" s="81"/>
       <c r="J24" s="81"/>
       <c r="K24" s="82"/>
       <c r="L24" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M24" s="89"/>
       <c r="N24" s="89"/>
       <c r="O24" s="89"/>
       <c r="P24" s="90"/>
       <c r="Q24" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R24" s="81"/>
       <c r="S24" s="82"/>
@@ -9455,7 +9456,7 @@
       <c r="BA24" s="209"/>
       <c r="BB24" s="210"/>
       <c r="BC24" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD24" s="211"/>
       <c r="BE24" s="211"/>
@@ -9469,28 +9470,28 @@
         <v>15</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
       <c r="F25" s="82"/>
       <c r="G25" s="80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H25" s="81"/>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
       <c r="K25" s="82"/>
       <c r="L25" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M25" s="89"/>
       <c r="N25" s="89"/>
       <c r="O25" s="89"/>
       <c r="P25" s="90"/>
       <c r="Q25" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R25" s="81"/>
       <c r="S25" s="82"/>
@@ -9532,7 +9533,7 @@
       <c r="BA25" s="209"/>
       <c r="BB25" s="210"/>
       <c r="BC25" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD25" s="211"/>
       <c r="BE25" s="211"/>
@@ -9546,28 +9547,28 @@
         <v>16</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
       <c r="F26" s="82"/>
       <c r="G26" s="80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H26" s="81"/>
       <c r="I26" s="81"/>
       <c r="J26" s="81"/>
       <c r="K26" s="82"/>
       <c r="L26" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M26" s="89"/>
       <c r="N26" s="89"/>
       <c r="O26" s="89"/>
       <c r="P26" s="90"/>
       <c r="Q26" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R26" s="81"/>
       <c r="S26" s="82"/>
@@ -9609,7 +9610,7 @@
       <c r="BA26" s="209"/>
       <c r="BB26" s="210"/>
       <c r="BC26" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD26" s="211"/>
       <c r="BE26" s="211"/>
@@ -9623,28 +9624,28 @@
         <v>17</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
       <c r="F27" s="82"/>
       <c r="G27" s="80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H27" s="81"/>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
       <c r="K27" s="82"/>
       <c r="L27" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M27" s="89"/>
       <c r="N27" s="89"/>
       <c r="O27" s="89"/>
       <c r="P27" s="90"/>
       <c r="Q27" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R27" s="81"/>
       <c r="S27" s="82"/>
@@ -9686,7 +9687,7 @@
       <c r="BA27" s="209"/>
       <c r="BB27" s="210"/>
       <c r="BC27" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD27" s="211"/>
       <c r="BE27" s="211"/>
@@ -9700,28 +9701,28 @@
         <v>18</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
       <c r="F28" s="82"/>
       <c r="G28" s="80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="81"/>
       <c r="I28" s="81"/>
       <c r="J28" s="81"/>
       <c r="K28" s="82"/>
       <c r="L28" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M28" s="89"/>
       <c r="N28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="90"/>
       <c r="Q28" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R28" s="81"/>
       <c r="S28" s="82"/>
@@ -9763,7 +9764,7 @@
       <c r="BA28" s="209"/>
       <c r="BB28" s="210"/>
       <c r="BC28" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD28" s="211"/>
       <c r="BE28" s="211"/>
@@ -9777,28 +9778,28 @@
         <v>19</v>
       </c>
       <c r="B29" s="80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
       <c r="F29" s="82"/>
       <c r="G29" s="80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H29" s="81"/>
       <c r="I29" s="81"/>
       <c r="J29" s="81"/>
       <c r="K29" s="82"/>
       <c r="L29" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M29" s="89"/>
       <c r="N29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="90"/>
       <c r="Q29" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R29" s="81"/>
       <c r="S29" s="82"/>
@@ -9840,7 +9841,7 @@
       <c r="BA29" s="209"/>
       <c r="BB29" s="210"/>
       <c r="BC29" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD29" s="211"/>
       <c r="BE29" s="211"/>
@@ -9854,28 +9855,28 @@
         <v>20</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
       <c r="F30" s="82"/>
       <c r="G30" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H30" s="81"/>
       <c r="I30" s="81"/>
       <c r="J30" s="81"/>
       <c r="K30" s="82"/>
       <c r="L30" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M30" s="89"/>
       <c r="N30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="90"/>
       <c r="Q30" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R30" s="81"/>
       <c r="S30" s="82"/>
@@ -9917,7 +9918,7 @@
       <c r="BA30" s="209"/>
       <c r="BB30" s="210"/>
       <c r="BC30" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD30" s="211"/>
       <c r="BE30" s="211"/>
@@ -9931,28 +9932,28 @@
         <v>21</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
       <c r="F31" s="82"/>
       <c r="G31" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H31" s="81"/>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
       <c r="K31" s="82"/>
       <c r="L31" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M31" s="89"/>
       <c r="N31" s="89"/>
       <c r="O31" s="89"/>
       <c r="P31" s="90"/>
       <c r="Q31" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R31" s="81"/>
       <c r="S31" s="82"/>
@@ -9994,7 +9995,7 @@
       <c r="BA31" s="209"/>
       <c r="BB31" s="210"/>
       <c r="BC31" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD31" s="211"/>
       <c r="BE31" s="211"/>
@@ -10008,28 +10009,28 @@
         <v>22</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="81"/>
       <c r="E32" s="81"/>
       <c r="F32" s="82"/>
       <c r="G32" s="80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H32" s="81"/>
       <c r="I32" s="81"/>
       <c r="J32" s="81"/>
       <c r="K32" s="82"/>
       <c r="L32" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M32" s="89"/>
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
       <c r="P32" s="90"/>
       <c r="Q32" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R32" s="81"/>
       <c r="S32" s="82"/>
@@ -10071,7 +10072,7 @@
       <c r="BA32" s="209"/>
       <c r="BB32" s="210"/>
       <c r="BC32" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD32" s="211"/>
       <c r="BE32" s="211"/>
@@ -10092,16 +10093,6 @@
     <mergeCell ref="AY32:AZ32"/>
     <mergeCell ref="BA32:BB32"/>
     <mergeCell ref="BC32:BI32"/>
-    <mergeCell ref="BA27:BB27"/>
-    <mergeCell ref="BC27:BI27"/>
-    <mergeCell ref="AO28:AX28"/>
-    <mergeCell ref="AY28:AZ28"/>
-    <mergeCell ref="BA28:BB28"/>
-    <mergeCell ref="BC28:BI28"/>
-    <mergeCell ref="AO29:AX29"/>
-    <mergeCell ref="AY29:AZ29"/>
-    <mergeCell ref="BA29:BB29"/>
-    <mergeCell ref="BC29:BI29"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -10223,6 +10214,10 @@
     <mergeCell ref="BC23:BI23"/>
     <mergeCell ref="AE23:AN23"/>
     <mergeCell ref="AE24:AN24"/>
+    <mergeCell ref="AY30:AZ30"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="AO26:AX26"/>
+    <mergeCell ref="AY26:AZ26"/>
     <mergeCell ref="BA26:BB26"/>
     <mergeCell ref="BC26:BI26"/>
     <mergeCell ref="T25:U25"/>
@@ -10232,16 +10227,17 @@
     <mergeCell ref="BC25:BI25"/>
     <mergeCell ref="AE25:AN25"/>
     <mergeCell ref="AE26:AN26"/>
+    <mergeCell ref="BA27:BB27"/>
+    <mergeCell ref="BC27:BI27"/>
+    <mergeCell ref="AO28:AX28"/>
+    <mergeCell ref="AY28:AZ28"/>
+    <mergeCell ref="BA28:BB28"/>
+    <mergeCell ref="BC28:BI28"/>
+    <mergeCell ref="AO29:AX29"/>
+    <mergeCell ref="AY29:AZ29"/>
+    <mergeCell ref="BA29:BB29"/>
+    <mergeCell ref="BC29:BI29"/>
     <mergeCell ref="AY27:AZ27"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="AE30:AN30"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="AE29:AN29"/>
-    <mergeCell ref="AO30:AX30"/>
-    <mergeCell ref="AY30:AZ30"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="AO26:AX26"/>
-    <mergeCell ref="AY26:AZ26"/>
     <mergeCell ref="T32:U32"/>
     <mergeCell ref="AE32:AN32"/>
     <mergeCell ref="T31:U31"/>
@@ -10251,6 +10247,11 @@
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="AE27:AN27"/>
     <mergeCell ref="AO27:AX27"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="AE30:AN30"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="AE29:AN29"/>
+    <mergeCell ref="AO30:AX30"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -10491,7 +10492,7 @@
       <c r="D5" s="195"/>
       <c r="E5" s="196"/>
       <c r="F5" s="108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
@@ -10512,7 +10513,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -10613,7 +10614,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -10799,21 +10800,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M11" s="89"/>
       <c r="N11" s="89"/>
@@ -10832,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -10878,21 +10879,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
       <c r="F12" s="86"/>
       <c r="G12" s="83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
       <c r="L12" s="88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
@@ -10939,7 +10940,7 @@
       <c r="BA12" s="209"/>
       <c r="BB12" s="210"/>
       <c r="BC12" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD12" s="211"/>
       <c r="BE12" s="211"/>
@@ -12060,7 +12061,7 @@
       <c r="C1" s="130"/>
       <c r="D1" s="131"/>
       <c r="E1" s="132" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="133"/>
       <c r="G1" s="133"/>
@@ -12078,7 +12079,7 @@
       <c r="Q1" s="139"/>
       <c r="R1" s="140"/>
       <c r="S1" s="147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T1" s="148"/>
       <c r="U1" s="148"/>
@@ -12118,7 +12119,7 @@
       <c r="C2" s="130"/>
       <c r="D2" s="131"/>
       <c r="E2" s="132" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="133"/>
       <c r="G2" s="133"/>
@@ -12172,7 +12173,7 @@
       <c r="C3" s="130"/>
       <c r="D3" s="131"/>
       <c r="E3" s="159" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
@@ -12292,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="110"/>
       <c r="D8" s="111">
@@ -12301,12 +12302,12 @@
       <c r="E8" s="112"/>
       <c r="F8" s="113"/>
       <c r="G8" s="114" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="115"/>
       <c r="I8" s="116"/>
       <c r="J8" s="117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="118"/>
       <c r="L8" s="118"/>
@@ -12315,7 +12316,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="119"/>
       <c r="Q8" s="120" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R8" s="121"/>
       <c r="S8" s="121"/>
@@ -12332,7 +12333,7 @@
       <c r="AD8" s="121"/>
       <c r="AE8" s="122"/>
       <c r="AF8" s="117" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG8" s="118"/>
       <c r="AH8" s="118"/>
@@ -12343,7 +12344,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="95">
@@ -12352,12 +12353,12 @@
       <c r="E9" s="96"/>
       <c r="F9" s="97"/>
       <c r="G9" s="106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H9" s="98"/>
       <c r="I9" s="94"/>
       <c r="J9" s="107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="100"/>
@@ -12366,7 +12367,7 @@
       <c r="O9" s="100"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="108" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R9" s="103"/>
       <c r="S9" s="103"/>
@@ -12383,7 +12384,7 @@
       <c r="AD9" s="103"/>
       <c r="AE9" s="104"/>
       <c r="AF9" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG9" s="100"/>
       <c r="AH9" s="100"/>
@@ -13931,7 +13932,7 @@
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -13970,7 +13971,7 @@
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="C9" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
@@ -14009,7 +14010,7 @@
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="39"/>
@@ -14048,7 +14049,7 @@
       <c r="A11" s="33"/>
       <c r="B11" s="39"/>
       <c r="C11" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -14087,7 +14088,7 @@
       <c r="A12" s="33"/>
       <c r="B12" s="41"/>
       <c r="C12" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -14126,7 +14127,7 @@
       <c r="A13" s="33"/>
       <c r="B13" s="29"/>
       <c r="C13" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -14165,7 +14166,7 @@
       <c r="A14" s="33"/>
       <c r="B14" s="41"/>
       <c r="C14" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -14204,7 +14205,7 @@
       <c r="A15" s="33"/>
       <c r="B15" s="29"/>
       <c r="C15" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -14243,7 +14244,7 @@
       <c r="A16" s="33"/>
       <c r="B16" s="29"/>
       <c r="C16" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -14282,7 +14283,7 @@
       <c r="A17" s="33"/>
       <c r="B17" s="29"/>
       <c r="C17" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -15449,7 +15450,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -15550,7 +15551,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -15693,7 +15694,7 @@
       <c r="V10" s="184"/>
       <c r="W10" s="184"/>
       <c r="X10" s="75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="69"/>
       <c r="Z10" s="69"/>
@@ -15745,21 +15746,21 @@
       <c r="E11" s="100"/>
       <c r="F11" s="101"/>
       <c r="G11" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="201" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M11" s="202"/>
       <c r="N11" s="202"/>
       <c r="O11" s="202"/>
       <c r="P11" s="203"/>
       <c r="Q11" s="201" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R11" s="202"/>
       <c r="S11" s="203"/>
@@ -15769,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -15779,7 +15780,7 @@
       <c r="AC11" s="73"/>
       <c r="AD11" s="73"/>
       <c r="AE11" s="108" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF11" s="199"/>
       <c r="AG11" s="199"/>
@@ -15824,7 +15825,7 @@
       <c r="E12" s="100"/>
       <c r="F12" s="101"/>
       <c r="G12" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
@@ -15848,10 +15849,10 @@
       <c r="U12" s="198"/>
       <c r="V12" s="70"/>
       <c r="W12" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X12" s="76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Y12" s="72"/>
       <c r="Z12" s="73"/>
@@ -15896,21 +15897,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C13" s="100"/>
       <c r="D13" s="100"/>
       <c r="E13" s="100"/>
       <c r="F13" s="101"/>
       <c r="G13" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="82"/>
       <c r="L13" s="108" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M13" s="103"/>
       <c r="N13" s="103"/>
@@ -15927,7 +15928,7 @@
       <c r="U13" s="198"/>
       <c r="V13" s="70"/>
       <c r="W13" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X13" s="73"/>
       <c r="Y13" s="73"/>
@@ -15980,14 +15981,14 @@
       <c r="E14" s="100"/>
       <c r="F14" s="101"/>
       <c r="G14" s="108" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H14" s="199"/>
       <c r="I14" s="199"/>
       <c r="J14" s="199"/>
       <c r="K14" s="200"/>
       <c r="L14" s="108" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M14" s="103"/>
       <c r="N14" s="103"/>
@@ -16002,7 +16003,7 @@
       <c r="U14" s="198"/>
       <c r="V14" s="70"/>
       <c r="W14" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X14" s="73"/>
       <c r="Y14" s="73"/>
@@ -16036,7 +16037,7 @@
       <c r="BA14" s="102"/>
       <c r="BB14" s="200"/>
       <c r="BC14" s="108" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BD14" s="199"/>
       <c r="BE14" s="199"/>
@@ -16050,21 +16051,21 @@
         <v>5</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="100"/>
       <c r="D15" s="100"/>
       <c r="E15" s="100"/>
       <c r="F15" s="101"/>
       <c r="G15" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="81"/>
       <c r="I15" s="81"/>
       <c r="J15" s="81"/>
       <c r="K15" s="82"/>
       <c r="L15" s="108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M15" s="103"/>
       <c r="N15" s="103"/>
@@ -16079,7 +16080,7 @@
       <c r="U15" s="198"/>
       <c r="V15" s="70"/>
       <c r="W15" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X15" s="73"/>
       <c r="Y15" s="73"/>
@@ -16125,14 +16126,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C16" s="100"/>
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
       <c r="F16" s="101"/>
       <c r="G16" s="108" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H16" s="199"/>
       <c r="I16" s="199"/>
@@ -16198,14 +16199,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C17" s="100"/>
       <c r="D17" s="100"/>
       <c r="E17" s="100"/>
       <c r="F17" s="101"/>
       <c r="G17" s="108" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H17" s="199"/>
       <c r="I17" s="199"/>
@@ -16278,7 +16279,7 @@
       <c r="E18" s="100"/>
       <c r="F18" s="101"/>
       <c r="G18" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
@@ -17227,7 +17228,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -17328,7 +17329,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -17514,28 +17515,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="100"/>
       <c r="D11" s="100"/>
       <c r="E11" s="100"/>
       <c r="F11" s="101"/>
       <c r="G11" s="80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M11" s="103"/>
       <c r="N11" s="103"/>
       <c r="O11" s="103"/>
       <c r="P11" s="104"/>
       <c r="Q11" s="108" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R11" s="103"/>
       <c r="S11" s="104"/>
@@ -17545,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -17598,7 +17599,7 @@
       <c r="E12" s="100"/>
       <c r="F12" s="101"/>
       <c r="G12" s="80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
@@ -17622,7 +17623,7 @@
       <c r="U12" s="198"/>
       <c r="V12" s="70"/>
       <c r="W12" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X12" s="72"/>
       <c r="Y12" s="72"/>
@@ -17675,7 +17676,7 @@
       <c r="E13" s="100"/>
       <c r="F13" s="101"/>
       <c r="G13" s="84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
@@ -17689,7 +17690,7 @@
       <c r="O13" s="103"/>
       <c r="P13" s="104"/>
       <c r="Q13" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R13" s="103"/>
       <c r="S13" s="104"/>
@@ -17699,7 +17700,7 @@
       <c r="U13" s="198"/>
       <c r="V13" s="70"/>
       <c r="W13" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X13" s="73"/>
       <c r="Y13" s="73"/>
@@ -17752,7 +17753,7 @@
       <c r="E14" s="100"/>
       <c r="F14" s="101"/>
       <c r="G14" s="80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="81"/>
@@ -17766,7 +17767,7 @@
       <c r="O14" s="103"/>
       <c r="P14" s="104"/>
       <c r="Q14" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R14" s="103"/>
       <c r="S14" s="104"/>
@@ -17776,7 +17777,7 @@
       <c r="U14" s="198"/>
       <c r="V14" s="70"/>
       <c r="W14" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X14" s="73"/>
       <c r="Y14" s="73"/>
@@ -17829,7 +17830,7 @@
       <c r="E15" s="100"/>
       <c r="F15" s="101"/>
       <c r="G15" s="80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="81"/>
       <c r="I15" s="81"/>
@@ -17851,7 +17852,7 @@
       <c r="U15" s="198"/>
       <c r="V15" s="70"/>
       <c r="W15" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X15" s="73"/>
       <c r="Y15" s="73"/>
@@ -17904,7 +17905,7 @@
       <c r="E16" s="100"/>
       <c r="F16" s="101"/>
       <c r="G16" s="80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="81"/>
       <c r="I16" s="81"/>
@@ -17926,7 +17927,7 @@
       <c r="U16" s="198"/>
       <c r="V16" s="70"/>
       <c r="W16" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X16" s="73"/>
       <c r="Y16" s="73"/>
@@ -17972,21 +17973,21 @@
         <v>7</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="100"/>
       <c r="D17" s="100"/>
       <c r="E17" s="100"/>
       <c r="F17" s="101"/>
       <c r="G17" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
       <c r="J17" s="81"/>
       <c r="K17" s="82"/>
       <c r="L17" s="108" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M17" s="103"/>
       <c r="N17" s="103"/>
@@ -18001,7 +18002,7 @@
       <c r="U17" s="198"/>
       <c r="V17" s="70"/>
       <c r="W17" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X17" s="73"/>
       <c r="Y17" s="73"/>
@@ -18011,7 +18012,7 @@
       <c r="AC17" s="73"/>
       <c r="AD17" s="73"/>
       <c r="AE17" s="108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF17" s="199"/>
       <c r="AG17" s="199"/>
@@ -18056,14 +18057,14 @@
       <c r="E18" s="100"/>
       <c r="F18" s="101"/>
       <c r="G18" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
       <c r="K18" s="82"/>
       <c r="L18" s="108" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M18" s="103"/>
       <c r="N18" s="103"/>
@@ -18078,7 +18079,7 @@
       <c r="U18" s="198"/>
       <c r="V18" s="70"/>
       <c r="W18" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X18" s="73"/>
       <c r="Y18" s="73"/>
@@ -18124,14 +18125,14 @@
         <v>9</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
       <c r="E19" s="100"/>
       <c r="F19" s="101"/>
       <c r="G19" s="84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H19" s="81"/>
       <c r="I19" s="81"/>
@@ -18155,7 +18156,7 @@
       <c r="U19" s="198"/>
       <c r="V19" s="70"/>
       <c r="W19" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X19" s="73"/>
       <c r="Y19" s="73"/>
@@ -18201,14 +18202,14 @@
         <v>10</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
       <c r="E20" s="100"/>
       <c r="F20" s="101"/>
       <c r="G20" s="84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H20" s="81"/>
       <c r="I20" s="81"/>
@@ -18232,7 +18233,7 @@
       <c r="U20" s="198"/>
       <c r="V20" s="70"/>
       <c r="W20" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X20" s="72"/>
       <c r="Y20" s="73"/>
@@ -18285,7 +18286,7 @@
       <c r="E21" s="100"/>
       <c r="F21" s="101"/>
       <c r="G21" s="80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
@@ -18353,21 +18354,21 @@
         <v>12</v>
       </c>
       <c r="B22" s="107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="100"/>
       <c r="D22" s="100"/>
       <c r="E22" s="100"/>
       <c r="F22" s="101"/>
       <c r="G22" s="83" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
       <c r="J22" s="81"/>
       <c r="K22" s="82"/>
       <c r="L22" s="108" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M22" s="103"/>
       <c r="N22" s="103"/>
@@ -18426,21 +18427,21 @@
         <v>13</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C23" s="100"/>
       <c r="D23" s="100"/>
       <c r="E23" s="100"/>
       <c r="F23" s="101"/>
       <c r="G23" s="83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
       <c r="K23" s="82"/>
       <c r="L23" s="108" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M23" s="103"/>
       <c r="N23" s="103"/>
@@ -18455,7 +18456,7 @@
       <c r="U23" s="198"/>
       <c r="V23" s="70"/>
       <c r="W23" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X23" s="73"/>
       <c r="Y23" s="73"/>
@@ -19280,7 +19281,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -19381,7 +19382,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -19574,14 +19575,14 @@
       <c r="E11" s="100"/>
       <c r="F11" s="101"/>
       <c r="G11" s="80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="108" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M11" s="103"/>
       <c r="N11" s="103"/>
@@ -19598,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -19608,7 +19609,7 @@
       <c r="AC11" s="73"/>
       <c r="AD11" s="73"/>
       <c r="AE11" s="108" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AF11" s="199"/>
       <c r="AG11" s="199"/>
@@ -19653,14 +19654,14 @@
       <c r="E12" s="100"/>
       <c r="F12" s="101"/>
       <c r="G12" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
       <c r="L12" s="108" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M12" s="103"/>
       <c r="N12" s="103"/>
@@ -19677,7 +19678,7 @@
         <v>2</v>
       </c>
       <c r="W12" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X12" s="72"/>
       <c r="Y12" s="72"/>
@@ -19687,7 +19688,7 @@
       <c r="AC12" s="73"/>
       <c r="AD12" s="73"/>
       <c r="AE12" s="108" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF12" s="199"/>
       <c r="AG12" s="199"/>
@@ -21060,7 +21061,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -21161,7 +21162,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -21354,21 +21355,21 @@
       <c r="E11" s="100"/>
       <c r="F11" s="101"/>
       <c r="G11" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="108" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M11" s="103"/>
       <c r="N11" s="103"/>
       <c r="O11" s="103"/>
       <c r="P11" s="104"/>
       <c r="Q11" s="108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R11" s="103"/>
       <c r="S11" s="104"/>
@@ -21378,7 +21379,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -21424,14 +21425,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="100"/>
       <c r="D12" s="100"/>
       <c r="E12" s="100"/>
       <c r="F12" s="101"/>
       <c r="G12" s="84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
@@ -21455,7 +21456,7 @@
       <c r="U12" s="198"/>
       <c r="V12" s="70"/>
       <c r="W12" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X12" s="72"/>
       <c r="Y12" s="72"/>
@@ -21501,21 +21502,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="C13" s="100"/>
       <c r="D13" s="100"/>
       <c r="E13" s="100"/>
       <c r="F13" s="101"/>
       <c r="G13" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="82"/>
-      <c r="L13" s="102" t="s">
-        <v>61</v>
+      <c r="L13" s="108" t="s">
+        <v>276</v>
       </c>
       <c r="M13" s="103"/>
       <c r="N13" s="103"/>
@@ -21532,7 +21533,7 @@
       <c r="U13" s="198"/>
       <c r="V13" s="70"/>
       <c r="W13" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X13" s="73"/>
       <c r="Y13" s="73"/>
@@ -21578,28 +21579,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="100"/>
       <c r="D14" s="100"/>
       <c r="E14" s="100"/>
       <c r="F14" s="101"/>
       <c r="G14" s="83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="81"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
       <c r="K14" s="82"/>
       <c r="L14" s="108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" s="103"/>
       <c r="N14" s="103"/>
       <c r="O14" s="103"/>
       <c r="P14" s="104"/>
       <c r="Q14" s="102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R14" s="103"/>
       <c r="S14" s="104"/>
@@ -21607,7 +21608,7 @@
       <c r="U14" s="198"/>
       <c r="V14" s="70"/>
       <c r="W14" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X14" s="73"/>
       <c r="Y14" s="73"/>
@@ -22839,7 +22840,7 @@
       <c r="D5" s="195"/>
       <c r="E5" s="196"/>
       <c r="F5" s="108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
@@ -22860,7 +22861,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -22961,7 +22962,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -23147,28 +23148,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="213"/>
       <c r="D11" s="213"/>
       <c r="E11" s="213"/>
       <c r="F11" s="214"/>
       <c r="G11" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="108" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M11" s="103"/>
       <c r="N11" s="103"/>
       <c r="O11" s="103"/>
       <c r="P11" s="104"/>
       <c r="Q11" s="108" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R11" s="103"/>
       <c r="S11" s="104"/>
@@ -23178,7 +23179,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -23224,28 +23225,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="213"/>
       <c r="D12" s="213"/>
       <c r="E12" s="213"/>
       <c r="F12" s="214"/>
       <c r="G12" s="83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
       <c r="L12" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M12" s="103"/>
       <c r="N12" s="103"/>
       <c r="O12" s="103"/>
       <c r="P12" s="104"/>
       <c r="Q12" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R12" s="103"/>
       <c r="S12" s="104"/>
@@ -23299,21 +23300,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="213"/>
       <c r="D13" s="213"/>
       <c r="E13" s="213"/>
       <c r="F13" s="214"/>
       <c r="G13" s="83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="82"/>
       <c r="L13" s="108" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M13" s="103"/>
       <c r="N13" s="103"/>
@@ -24622,7 +24623,7 @@
       <c r="D5" s="195"/>
       <c r="E5" s="196"/>
       <c r="F5" s="108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
@@ -24643,7 +24644,7 @@
       <c r="U5" s="195"/>
       <c r="V5" s="196"/>
       <c r="W5" s="108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X5" s="103"/>
       <c r="Y5" s="103"/>
@@ -24744,7 +24745,7 @@
       <c r="AC8" s="205"/>
       <c r="AD8" s="206"/>
       <c r="AE8" s="207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF8" s="186"/>
       <c r="AG8" s="186"/>
@@ -24930,21 +24931,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
       <c r="K11" s="82"/>
       <c r="L11" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M11" s="89"/>
       <c r="N11" s="89"/>
@@ -24963,7 +24964,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" s="72"/>
       <c r="Y11" s="72"/>
@@ -25009,28 +25010,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
       <c r="F12" s="86"/>
       <c r="G12" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
       <c r="L12" s="88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
       <c r="O12" s="89"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R12" s="81"/>
       <c r="S12" s="82"/>
@@ -25082,21 +25083,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="86"/>
       <c r="G13" s="83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="82"/>
       <c r="L13" s="88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M13" s="89"/>
       <c r="N13" s="89"/>
@@ -25143,7 +25144,7 @@
       <c r="BA13" s="209"/>
       <c r="BB13" s="210"/>
       <c r="BC13" s="212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BD13" s="211"/>
       <c r="BE13" s="211"/>
